--- a/soil Analysis summery.xlsx
+++ b/soil Analysis summery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Stat Demo Work - 2023\Semester 2\kolonnowa-marsh-water-quality\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E904C7-A537-4AA7-8D7F-27D8F54FED06}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7AAFCD-68DF-4D3C-880C-80153597CC9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -397,7 +397,7 @@
   <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,7 +406,7 @@
     <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
